--- a/sheets/Trešdiena.xlsx
+++ b/sheets/Trešdiena.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC9D67-B924-41D1-ADFB-C6C22BDF1B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE3A089-45C0-43E4-95FE-347F257219F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09398763-8927-4209-B9B3-A8A3519A9612}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
   <si>
     <t>1.</t>
   </si>
@@ -704,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF404DA-92C9-4753-AF00-FA95D6AA8D8B}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +718,32 @@
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>27</v>

--- a/sheets/Trešdiena.xlsx
+++ b/sheets/Trešdiena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AE3A089-45C0-43E4-95FE-347F257219F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218BEBF8-CBC3-4F77-AA0F-2770392E6600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{09398763-8927-4209-B9B3-A8A3519A9612}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="72">
   <si>
     <t>1.</t>
   </si>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>Mūzika / Ekonomika</t>
+  </si>
+  <si>
+    <t>Pirmdiena</t>
   </si>
 </sst>
 </file>
@@ -702,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF404DA-92C9-4753-AF00-FA95D6AA8D8B}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -718,7 +721,7 @@
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -744,941 +747,1049 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:9" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D2" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="C13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:9" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H14" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="I14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="D20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="D22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="H22" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="D23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="8" t="s">
         <v>27</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="G25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:9" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="D26" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H26" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
+      <c r="I26" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="I27" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="F28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="G28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="F30" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="F31" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="F32" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="C33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="H33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="F34" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="I34" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="I35" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="F36" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="G37" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I37" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
